--- a/biology/Botanique/Bois_de_fer/Bois_de_fer.xlsx
+++ b/biology/Botanique/Bois_de_fer/Bois_de_fer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bois de fer est le nom ou le surnom donné localement à diverses espèces d'arbres à travers le monde ou au bois que ces arbres produisent, notamment :
 le gaïac, bois produit par des arbres du genre Guaiacum : Guaiacum officinale ou Guaiacum sanctum,
@@ -489,7 +501,7 @@
 le bois de fer bâtard (Sideroxylon borbonica),
 l'arganier (Argania spinosa), appelé précédemment Sideroxylon spinosum,
 le palo fierro (Olneya tesota) du Mexique et le Sud-Ouest des États-Unis.
-L'Anakaraka (Cordyla madagascariensis[1]) de Madagascar
+L'Anakaraka (Cordyla madagascariensis) de Madagascar
 Au Canada, bois de fer est le nom donné à l'Ostryer de Virginie (Ostrya virginiana).
 </t>
         </is>
